--- a/Dados Cadastrais.xlsx
+++ b/Dados Cadastrais.xlsx
@@ -1273,15 +1273,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G2" sqref="G2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="8"/>
+    <col width="40" customWidth="1" min="1" max="5"/>
+    <col width="52" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="7" max="8"/>
     <col width="18.28515625" bestFit="1" customWidth="1" min="9" max="10"/>
   </cols>
   <sheetData>
@@ -1318,36 +1320,16 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Inicio de Semestre</t>
+          <t>Início do Curso</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Fim de Semestre</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Ciclo de Início</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ciclo de Término</t>
+          <t>Fim do Curso</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>09/11/2020 - Ciclo 1</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>teste@gmail.com 1</t>
@@ -1370,36 +1352,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 1</t>
-        </is>
-      </c>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24/11/2020 - Ciclo 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>24/12/2020 - Ciclo 2</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>teste@gmail.com 2</t>
@@ -1422,36 +1385,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 2</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08/01/2021 - Ciclo 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>07/02/2021 - Ciclo 3</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>teste@gmail.com 3</t>
@@ -1474,36 +1417,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 3</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>22/02/2021 - Ciclo 4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>24/03/2021 - Ciclo 4</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>teste@gmail.com 4</t>
@@ -1511,22 +1434,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 4</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1548,22 +1461,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 5</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1488,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1612,26 +1515,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10/10/2020 - Ciclo 1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>123456789-19</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>teste@gmail.com 8</t>
@@ -1639,26 +1532,16 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>24/11/2020 - Ciclo 2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>09/11/2020 - Ciclo 1</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>teste@gmail.com 9</t>
@@ -1666,26 +1549,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>08/01/2021 - Ciclo 3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>24/12/2020 - Ciclo 2</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>teste@gmail.com 10</t>
@@ -1693,26 +1566,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22/02/2021 - Ciclo 4</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>07/02/2021 - Ciclo 3</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>teste@gmail.com 11</t>
@@ -1720,26 +1583,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>aluno 12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>24/03/2021 - Ciclo 4</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>teste@gmail.com 12</t>
@@ -1747,12 +1600,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1627,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1654,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1828,24 +1681,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
+          <t>10/10/2024</t>
         </is>
       </c>
     </row>
@@ -1862,13 +1703,16 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="8"/>
+    <col width="40" customWidth="1" min="1" max="5"/>
+    <col width="69.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="7" max="8"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1904,12 +1748,12 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Inicio de Semestre</t>
+          <t>Início do Curso</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Fim de Semestre</t>
+          <t>Fim do Curso</t>
         </is>
       </c>
     </row>
